--- a/biology/Botanique/Courge_cireuse/Courge_cireuse.xlsx
+++ b/biology/Botanique/Courge_cireuse/Courge_cireuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Benincasa hispida
 La courge cireuse (Benincasa hispida) est une espèce de plante à fleurs de la famille des Cucurbitacées, principalement cultivée en Asie du Sud-Est et en Asie Orientale comme plante potagère. Son fruit comestible se conserve tout l'hiver d’où son nom local de courge d'hiver.
@@ -513,11 +525,13 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Benincasa hispida (Thunb.) Cogn., ex . Benincasa cerifera. Gaetano Savi a donné le nom botanique de la plante [1] en souvenir de Giuseppe Benincasa directeur du jardin botanique de Pise de 1591 à 1595 [2].  Hispida signifie hérissé de poils, cerifera : cireuse; d'où le nom commun occidental.
-Courge cireuse, melon d'hiver au Canada, courge à la cire, bidao, bénincasa, pastèque de Chine, gourde cireuse chinoise[3]. De : Wachskürbis ; en : winter melon, ash gourd, wax gourd ; es :  calabaza blanca .
-En Asie : courge d'hiver : Chinois 冬瓜 Tung-kua : kua d'hiver [4],  japonais トウガン  toogan, philippin  tankoi [5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Benincasa hispida (Thunb.) Cogn., ex . Benincasa cerifera. Gaetano Savi a donné le nom botanique de la plante  en souvenir de Giuseppe Benincasa directeur du jardin botanique de Pise de 1591 à 1595 .  Hispida signifie hérissé de poils, cerifera : cireuse; d'où le nom commun occidental.
+Courge cireuse, melon d'hiver au Canada, courge à la cire, bidao, bénincasa, pastèque de Chine, gourde cireuse chinoise. De : Wachskürbis ; en : winter melon, ash gourd, wax gourd ; es :  calabaza blanca .
+En Asie : courge d'hiver : Chinois 冬瓜 Tung-kua : kua d'hiver ,  japonais トウガン  toogan, philippin  tankoi ,.
 </t>
         </is>
       </c>
@@ -546,12 +560,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée annuelle rampante ou grimpante qui peut atteindre 6 m de long.
 Les feuilles sont grandes de 10 à 25 cm de long et de large, entières, à nervation palmée, formant cinq lobes arrondis peu marqués. Elles sont de couleur verte marbrée de blanc et veloutées.
 Les fleurs à sexes séparés (plante monoïque), solitaires, grandes, sont jaunes avec 5 sépales lancéolés dentés et recourbés.
-Les fruits sont de forme sphérique, ovoïde, allongée ou cylindrique. Ils mesurent jusqu'à 80 cm de long et 25 cm de diamètre. À maturité, ils sont recouverts d'une pilosité blanchâtre et d'une cire qui produit une efflorescence à reflets bleutés qui ont valu ses noms à la plante. Sous lumière solaire, ces micro poils ont une activité  photocatalytique qui peut être utilisée pour la production de nanoparticules (2019)[7]. Les poils peuvent être urticants, on les supprime en frottant la courge avec un chiffon, ce qui rend la courge brillante, comme cirée [8]. La chair est blanche, ferme, sans saveur à maturité, de texture croquante. Les graines sont nombreuses, aplaties, ovoïdes-allongés et mesurent 1 cm de long[9].
+Les fruits sont de forme sphérique, ovoïde, allongée ou cylindrique. Ils mesurent jusqu'à 80 cm de long et 25 cm de diamètre. À maturité, ils sont recouverts d'une pilosité blanchâtre et d'une cire qui produit une efflorescence à reflets bleutés qui ont valu ses noms à la plante. Sous lumière solaire, ces micro poils ont une activité  photocatalytique qui peut être utilisée pour la production de nanoparticules (2019). Les poils peuvent être urticants, on les supprime en frottant la courge avec un chiffon, ce qui rend la courge brillante, comme cirée . La chair est blanche, ferme, sans saveur à maturité, de texture croquante. Les graines sont nombreuses, aplaties, ovoïdes-allongés et mesurent 1 cm de long.
 </t>
         </is>
       </c>
@@ -580,10 +596,12 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plus ancienne trace de culture de courge cireuse est dans le site néolithique de Kana en Nouvelle Guinée [10],[11] [1]
-Deux centres de domestication sont actuellement supposées : le sud du sud-est chinois (Yunnan) et le nord-est du Laos - zones de forte biodiversité des cultivars [12] - ainsi que le sud-est du Népal[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plus ancienne trace de culture de courge cireuse est dans le site néolithique de Kana en Nouvelle Guinée , 
+Deux centres de domestication sont actuellement supposées : le sud du sud-est chinois (Yunnan) et le nord-est du Laos - zones de forte biodiversité des cultivars  - ainsi que le sud-est du Népal.
 Introduite en Amérique par les Chinois, elle n'y connaît pas un grand succès.
 </t>
         </is>
@@ -613,16 +631,13 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>La courge cireuse exige un climat chaud, le climat méditerranéen chaud (Europe du Sud et Afrique du Nord) lui convient, elle a été cultivée en serre en Grande-Bretagne . Les graines y sont forcées en mars et les plantules repiquées en avril.
 Les conditions de cultures sont comparables aux courges et melons (sol riche, arrosage régulier, pH neutre) et le fruit doit être protégé du soleil direct.
-Dans l'hémisphère nord la récolte se fait en fin septembre, début octobre en climat chaud, d'avril à décembre en climat subtropical. Le stockage en cave (10°) permet de conserver le fruit tout l'hiver.
-Cultivars
-Les cultivars asiatiques les plus courants sont : 
-La courge cireuse ronde (Marutougan マルトウガン au Japon), la courge cireuse longue (Nagatougan ナガトウガン)
-La courge cireuse d'Okinawa [2]
-Le cultivar tardif très pruineux et rond Daimaru [3]</t>
+Dans l'hémisphère nord la récolte se fait en fin septembre, début octobre en climat chaud, d'avril à décembre en climat subtropical. Le stockage en cave (10°) permet de conserver le fruit tout l'hiver.</t>
         </is>
       </c>
     </row>
@@ -647,27 +662,172 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Cultivars</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les cultivars asiatiques les plus courants sont : 
+La courge cireuse ronde (Marutougan マルトウガン au Japon), la courge cireuse longue (Nagatougan ナガトウガン)
+La courge cireuse d'Okinawa 
+Le cultivar tardif très pruineux et rond Daimaru </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Courge_cireuse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge_cireuse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">La courge cireuse est utilisée en médecine traditionnelle et comme aliment. 
-Le fruit se récolte soit immature (dans la semaine qui suit la floraison) [12] soit à complète maturité.  Immature et jeune il a une saveur délicieuse, plus forte et plus distinctive que celui de la courge[12]. A maturité, la pulpe et les graines se consomment crues ou cuites, les pousses, vrilles, et les feuilles peuvent également être consommées comme légumes[réf. souhaitée].
-Nutrition
-Le fruit : la pulpe contient 96 % d'eau, elle est très peu calorique (13 calories pour 100 g), pauvre en hydrates de carbone (3 % en poids), et riche en fibres (0,5 % en poids), le principal minéral contenu est le Potassium: 111 mg pour 100 g.[4].
-Les graines :  Le contenu brut en graisse est de 11,6 % (protéines 20,7 %) avec un faible taux d'acides gras saturés, l'huile de graine de courge cireuse contient 67,4 % d'acide linoléique, 17,1 % d'acide palmitique, 10,2 % d'acide oléique et 4,8 % d'acide stéarique[14].
-Cuisine et boissons
-La pulpe se mange crue, se prépare en cornichon au vinaigre, ou cuite :  
+Le fruit se récolte soit immature (dans la semaine qui suit la floraison)  soit à complète maturité.  Immature et jeune il a une saveur délicieuse, plus forte et plus distinctive que celui de la courge. A maturité, la pulpe et les graines se consomment crues ou cuites, les pousses, vrilles, et les feuilles peuvent également être consommées comme légumes[réf. souhaitée].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Courge_cireuse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge_cireuse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nutrition</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Le fruit : la pulpe contient 96 % d'eau, elle est très peu calorique (13 calories pour 100 g), pauvre en hydrates de carbone (3 % en poids), et riche en fibres (0,5 % en poids), le principal minéral contenu est le Potassium: 111 mg pour 100 g..
+Les graines :  Le contenu brut en graisse est de 11,6 % (protéines 20,7 %) avec un faible taux d'acides gras saturés, l'huile de graine de courge cireuse contient 67,4 % d'acide linoléique, 17,1 % d'acide palmitique, 10,2 % d'acide oléique et 4,8 % d'acide stéarique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Courge_cireuse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge_cireuse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Cuisine et boissons</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La pulpe se mange crue, se prépare en cornichon au vinaigre, ou cuite :  
 en cuisine salée elle se cuit sautée, étuvée ou braisée, à la vapeur, au bouillon ou dans les soupes. Elle prend facilement le gout du milieu de cuisson, ce qui en fait tout l'intérêt culinaire. Il existe des centaines de présentations à travers l'Asie : currys, soupes, fritures et tenpura. La soupe de courge cireuse est souvent faite avec du porc en Chine et au Vietnam, la courge sert également de contenant pour présenter la soupe.
-en cuisine sucrée, confite, elle constitue une sorte de bonbon chinois du nouvel an et entre dans la composition de la farce des bakpia philippins, des gâteaux de lune, ou encore des gâteaux à l'ananas taïwanais[15].
+en cuisine sucrée, confite, elle constitue une sorte de bonbon chinois du nouvel an et entre dans la composition de la farce des bakpia philippins, des gâteaux de lune, ou encore des gâteaux à l'ananas taïwanais.
 La texture ne se perd pas, la tenue à la cuisson est excellente.
-Le winter melon tea, punch à la courge cireuse, est une boisson douce et fruitée populaire en Asie de l'est, servie fraîche ou chaude. Il s'agit d'une liqueur de courge cireuse (macération de 1,5 kg de courge cireuse, 250 g de sucre brun et 50 g de sucre candi pendant une heure, qu'on fait bouillir puis cuire 2 heures à feu doux) diluée avec 75 % d'eau fraîche.[5]
-Thérapeutique
-En pharmacologie, une étude irakienne (2013) dresse une longue liste des utilisations traditionnelles  [16], une publication indienne (2019) fait la synthèse des publications académiques.  
-En médecine traditionnelle la courge cireuse est reconnue comme anti-diarrhéique, anti-obésité, anti-ulcère, antioxydante (démontré chez le rat [17]) et diurétique. Selon la publication indienne des activités anti-ulcéreuse [18], diurétique, neuropsychopharmacologie[19], antioxydante, anthelminthique, anti-hyperlipidémiques et anti-obésité ont été mises en évidence dans le modèle animal. 
-En médecine ayurvédique, le fruit, source de triterpènes, phénols, stérols et glycosides est utilisé pour le traitement de l'épilepsie et des ulcères [20].    
-En médecine chinoise traditionnelle, le fruit et la graine sont utilisés dans le traitement de l'hypertension et de l'inflammation, les publications chinoises lui accordent des effets protecteurs contre les maladies cardio-vasculaires et les cancers [21].
+Le winter melon tea, punch à la courge cireuse, est une boisson douce et fruitée populaire en Asie de l'est, servie fraîche ou chaude. Il s'agit d'une liqueur de courge cireuse (macération de 1,5 kg de courge cireuse, 250 g de sucre brun et 50 g de sucre candi pendant une heure, qu'on fait bouillir puis cuire 2 heures à feu doux) diluée avec 75 % d'eau fraîche.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Courge_cireuse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Courge_cireuse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Utilisation</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Thérapeutique</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En pharmacologie, une étude irakienne (2013) dresse une longue liste des utilisations traditionnelles  , une publication indienne (2019) fait la synthèse des publications académiques.  
+En médecine traditionnelle la courge cireuse est reconnue comme anti-diarrhéique, anti-obésité, anti-ulcère, antioxydante (démontré chez le rat ) et diurétique. Selon la publication indienne des activités anti-ulcéreuse , diurétique, neuropsychopharmacologie, antioxydante, anthelminthique, anti-hyperlipidémiques et anti-obésité ont été mises en évidence dans le modèle animal. 
+En médecine ayurvédique, le fruit, source de triterpènes, phénols, stérols et glycosides est utilisé pour le traitement de l'épilepsie et des ulcères .    
+En médecine chinoise traditionnelle, le fruit et la graine sont utilisés dans le traitement de l'hypertension et de l'inflammation, les publications chinoises lui accordent des effets protecteurs contre les maladies cardio-vasculaires et les cancers .
 </t>
         </is>
       </c>
